--- a/results.xlsx
+++ b/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>ntrain</t>
   </si>
@@ -75,13 +75,55 @@
   </si>
   <si>
     <t>test loss</t>
+  </si>
+  <si>
+    <t>100/100 [==============================] - 66s</t>
+  </si>
+  <si>
+    <t>Test loss: 0.268001300693</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.925011506081</t>
+  </si>
+  <si>
+    <t>Test loss: 0.26745993644</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.922002506256</t>
+  </si>
+  <si>
+    <t>Test loss: 0.266666148007</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.922234516144</t>
+  </si>
+  <si>
+    <t>Test loss: 0.261795629263</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.921019852161</t>
+  </si>
+  <si>
+    <t>Test loss: 0.262250866592</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.922011356354</t>
+  </si>
+  <si>
+    <t>100/100 [==============================] - 66s     </t>
+  </si>
+  <si>
+    <t>Test loss: 0.263390686512</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.921258068085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +137,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,11 +188,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -424,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,6 +613,96 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
